--- a/trunk/poi-example/src/test/resources/emp-data.xlsx
+++ b/trunk/poi-example/src/test/resources/emp-data.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="13995" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11910" windowHeight="4875"/>
   </bookViews>
   <sheets>
     <sheet name="emp-data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J13"/>
 </workbook>
 </file>
 
@@ -1034,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,87 +1050,62 @@
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>7369</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>7902</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>29568</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>800</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>7499</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>7698</v>
-      </c>
-      <c r="E3" s="1">
-        <v>29636</v>
-      </c>
-      <c r="F3">
-        <v>1600</v>
-      </c>
-      <c r="G3">
-        <v>300</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7521</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1137,96 +1114,99 @@
         <v>7698</v>
       </c>
       <c r="E4" s="1">
-        <v>29639</v>
+        <v>29636</v>
       </c>
       <c r="F4">
-        <v>1250</v>
+        <v>1600</v>
       </c>
       <c r="G4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>7521</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>7698</v>
+      </c>
+      <c r="E5" s="1">
+        <v>29639</v>
+      </c>
+      <c r="F5">
+        <v>1250</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>7566</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>7839</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>29678</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>2975</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>7654</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>7698</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>29857</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>1250</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>1400</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7698</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>7839</v>
-      </c>
-      <c r="E7" s="1">
-        <v>29707</v>
-      </c>
-      <c r="F7">
-        <v>2850</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7782</v>
+        <v>7698</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1235,133 +1215,156 @@
         <v>7839</v>
       </c>
       <c r="E8" s="1">
+        <v>29707</v>
+      </c>
+      <c r="F8">
+        <v>2850</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7782</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>7839</v>
+      </c>
+      <c r="E9" s="1">
         <v>29746</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>2450</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7839</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>29907</v>
-      </c>
-      <c r="F9">
-        <v>5000</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>7839</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>29907</v>
+      </c>
+      <c r="F10">
+        <v>5000</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>7844</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>7698</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>29837</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>1500</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>7900</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>7900</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>29921</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>950</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>200</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>7902</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>7566</v>
-      </c>
-      <c r="E12" s="1">
-        <v>29923</v>
-      </c>
-      <c r="F12">
-        <v>3000</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>7902</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>7566</v>
+      </c>
+      <c r="E13" s="1">
+        <v>29923</v>
+      </c>
+      <c r="F13">
+        <v>3000</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>7934</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>7782</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>29974</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>1300</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>10</v>
       </c>
     </row>
@@ -1369,4 +1372,17 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/poi-example/src/test/resources/emp-data.xlsx
+++ b/trunk/poi-example/src/test/resources/emp-data.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="11910" windowHeight="4875"/>
+    <workbookView xWindow="-491520" yWindow="-476745" windowWidth="12120" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="emp-data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>EMPNO</t>
   </si>
@@ -46,9 +45,6 @@
   </si>
   <si>
     <t>CLERK</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>ALLEN</t>
@@ -1036,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1050,321 +1046,317 @@
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7369</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>7902</v>
+      </c>
+      <c r="E2" s="1">
+        <v>29568</v>
+      </c>
+      <c r="F2">
+        <v>800</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7369</v>
+        <v>7499</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>7902</v>
+        <v>7698</v>
       </c>
       <c r="E3" s="1">
-        <v>29568</v>
+        <v>29636</v>
       </c>
       <c r="F3">
-        <v>800</v>
+        <v>1600</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7499</v>
+        <v>7521</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4">
         <v>7698</v>
       </c>
       <c r="E4" s="1">
-        <v>29636</v>
+        <v>29639</v>
       </c>
       <c r="F4">
-        <v>1600</v>
+        <v>1250</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7521</v>
+        <v>7566</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
+        <v>7839</v>
+      </c>
+      <c r="E5" s="1">
+        <v>29678</v>
+      </c>
+      <c r="F5">
+        <v>2975</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7654</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
         <v>7698</v>
       </c>
-      <c r="E5" s="1">
-        <v>29639</v>
-      </c>
-      <c r="F5">
+      <c r="E6" s="1">
+        <v>29857</v>
+      </c>
+      <c r="F6">
         <v>1250</v>
       </c>
-      <c r="G5">
-        <v>500</v>
-      </c>
-      <c r="H5">
+      <c r="G6">
+        <v>1400</v>
+      </c>
+      <c r="H6">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7566</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>7839</v>
-      </c>
-      <c r="E6" s="1">
-        <v>29678</v>
-      </c>
-      <c r="F6">
-        <v>2975</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7654</v>
+        <v>7698</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>7698</v>
+        <v>7839</v>
       </c>
       <c r="E7" s="1">
-        <v>29857</v>
+        <v>29707</v>
       </c>
       <c r="F7">
-        <v>1250</v>
-      </c>
-      <c r="G7">
-        <v>1400</v>
+        <v>2850</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7698</v>
+        <v>7782</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>7839</v>
       </c>
       <c r="E8" s="1">
-        <v>29707</v>
+        <v>29746</v>
       </c>
       <c r="F8">
-        <v>2850</v>
+        <v>2450</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7782</v>
+        <v>7839</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>7839</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>29746</v>
+        <v>29907</v>
       </c>
       <c r="F9">
-        <v>2450</v>
+        <v>5000</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7839</v>
+        <v>7844</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>7698</v>
       </c>
       <c r="E10" s="1">
-        <v>29907</v>
+        <v>29837</v>
       </c>
       <c r="F10">
-        <v>5000</v>
+        <v>1500</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7844</v>
+        <v>7900</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>7698</v>
+        <v>7900</v>
       </c>
       <c r="E11" s="1">
-        <v>29837</v>
+        <v>29921</v>
       </c>
       <c r="F11">
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7900</v>
+        <v>7902</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>7900</v>
+        <v>7566</v>
       </c>
       <c r="E12" s="1">
-        <v>29921</v>
+        <v>29923</v>
       </c>
       <c r="F12">
-        <v>950</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7902</v>
+        <v>7934</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>7566</v>
+        <v>7782</v>
       </c>
       <c r="E13" s="1">
-        <v>29923</v>
+        <v>29974</v>
       </c>
       <c r="F13">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="H13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7934</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>7782</v>
-      </c>
-      <c r="E14" s="1">
-        <v>29974</v>
-      </c>
-      <c r="F14">
-        <v>1300</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
         <v>10</v>
       </c>
     </row>
